--- a/proyecto/iteraciones/sprint-18/Burndown  Sprint 18.xlsx
+++ b/proyecto/iteraciones/sprint-18/Burndown  Sprint 18.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -52,7 +52,7 @@
     <t>#US58 Recuperar el avance del parcial en caso de una eventual falla del sistema o PC</t>
   </si>
   <si>
-    <t>#US47 Crear manual de usuario definitivo</t>
+    <t>#US44 Crear manual de usuario definitivo</t>
   </si>
 </sst>
 </file>
@@ -738,11 +738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76754304"/>
-        <c:axId val="76756480"/>
+        <c:axId val="92482944"/>
+        <c:axId val="92485120"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="76754304"/>
+        <c:axId val="92482944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +785,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76756480"/>
+        <c:crossAx val="92485120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +793,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76756480"/>
+        <c:axId val="92485120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76754304"/>
+        <c:crossAx val="92482944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1187,7 +1187,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BN15" sqref="BN15"/>
+      <selection pane="bottomRight" activeCell="BM7" sqref="BM6:BM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1519,11 +1519,21 @@
       <c r="R3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
+      <c r="S3" s="29">
+        <v>0</v>
+      </c>
+      <c r="T3" s="29">
+        <v>0</v>
+      </c>
+      <c r="U3" s="29">
+        <v>0</v>
+      </c>
+      <c r="V3" s="29">
+        <v>0</v>
+      </c>
+      <c r="W3" s="29">
+        <v>0</v>
+      </c>
       <c r="X3" s="29" t="s">
         <v>4</v>
       </c>
